--- a/FOWARD.xlsx
+++ b/FOWARD.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ROBOTICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code_2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="dt">Sheet1!$C$3</definedName>
     <definedName name="h">Sheet1!$F$3</definedName>
     <definedName name="w">Sheet1!$F$4</definedName>
   </definedNames>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">h = </t>
   </si>
@@ -65,6 +66,9 @@
   </si>
   <si>
     <t>dv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dt = </t>
   </si>
 </sst>
 </file>
@@ -137,7 +141,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2194,7 +2197,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2478,12 +2487,18 @@
   <dimension ref="B3:L211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
@@ -2575,7 +2590,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9">
-        <f>B8+0.1</f>
+        <f>B8+dt</f>
         <v>0.1</v>
       </c>
       <c r="C9" s="1">
@@ -2618,15 +2633,15 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10">
-        <f t="shared" ref="B10:B73" si="4">B9+0.1</f>
+        <f>B9+dt</f>
         <v>0.2</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ref="C10:D73" si="5">C9</f>
+        <f t="shared" ref="C10:D73" si="4">C9</f>
         <v>300</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E10" s="1"/>
@@ -2647,7 +2662,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J10">
-        <f>G9+J9</f>
+        <f t="shared" ref="J10:J73" si="5">G9+J9</f>
         <v>-12</v>
       </c>
       <c r="K10">
@@ -2661,15 +2676,15 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11">
-        <f t="shared" si="4"/>
+        <f>B10+dt</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E11" s="1"/>
@@ -2690,7 +2705,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J11">
-        <f>G10+J10</f>
+        <f t="shared" si="5"/>
         <v>-18</v>
       </c>
       <c r="K11">
@@ -2704,15 +2719,15 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f t="shared" si="4"/>
+        <f>B11+dt</f>
         <v>0.4</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E12" s="1"/>
@@ -2733,7 +2748,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J12">
-        <f>G11+J11</f>
+        <f t="shared" si="5"/>
         <v>-24</v>
       </c>
       <c r="K12">
@@ -2747,15 +2762,15 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f t="shared" si="4"/>
+        <f>B12+dt</f>
         <v>0.5</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -2776,7 +2791,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J13">
-        <f>G12+J12</f>
+        <f t="shared" si="5"/>
         <v>-30</v>
       </c>
       <c r="K13">
@@ -2790,15 +2805,15 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14">
-        <f t="shared" si="4"/>
+        <f>B13+dt</f>
         <v>0.6</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E14" s="1"/>
@@ -2819,7 +2834,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J14">
-        <f>G13+J13</f>
+        <f t="shared" si="5"/>
         <v>-36</v>
       </c>
       <c r="K14">
@@ -2833,15 +2848,15 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15">
-        <f t="shared" si="4"/>
+        <f>B14+dt</f>
         <v>0.7</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E15" s="1"/>
@@ -2862,7 +2877,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J15">
-        <f>G14+J14</f>
+        <f t="shared" si="5"/>
         <v>-42</v>
       </c>
       <c r="K15">
@@ -2876,15 +2891,15 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16">
-        <f t="shared" si="4"/>
+        <f>B15+dt</f>
         <v>0.79999999999999993</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E16" s="1"/>
@@ -2905,7 +2920,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J16">
-        <f>G15+J15</f>
+        <f t="shared" si="5"/>
         <v>-48</v>
       </c>
       <c r="K16">
@@ -2919,15 +2934,15 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f t="shared" si="4"/>
+        <f>B16+dt</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E17" s="1"/>
@@ -2948,7 +2963,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J17">
-        <f>G16+J16</f>
+        <f t="shared" si="5"/>
         <v>-54</v>
       </c>
       <c r="K17">
@@ -2962,15 +2977,15 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18">
-        <f t="shared" si="4"/>
+        <f>B17+dt</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E18" s="1"/>
@@ -2991,7 +3006,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J18">
-        <f>G17+J17</f>
+        <f t="shared" si="5"/>
         <v>-60</v>
       </c>
       <c r="K18">
@@ -3005,15 +3020,15 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19">
-        <f t="shared" si="4"/>
+        <f>B18+dt</f>
         <v>1.0999999999999999</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E19" s="1"/>
@@ -3034,7 +3049,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J19">
-        <f>G18+J18</f>
+        <f t="shared" si="5"/>
         <v>-66</v>
       </c>
       <c r="K19">
@@ -3048,15 +3063,15 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20">
-        <f t="shared" si="4"/>
+        <f>B19+dt</f>
         <v>1.2</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E20" s="1"/>
@@ -3077,7 +3092,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J20">
-        <f>G19+J19</f>
+        <f t="shared" si="5"/>
         <v>-72</v>
       </c>
       <c r="K20">
@@ -3091,15 +3106,15 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21">
-        <f t="shared" si="4"/>
+        <f>B20+dt</f>
         <v>1.3</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E21" s="1"/>
@@ -3120,7 +3135,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J21">
-        <f>G20+J20</f>
+        <f t="shared" si="5"/>
         <v>-78</v>
       </c>
       <c r="K21">
@@ -3134,15 +3149,15 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22">
-        <f t="shared" si="4"/>
+        <f>B21+dt</f>
         <v>1.4000000000000001</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E22" s="1"/>
@@ -3163,7 +3178,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J22">
-        <f>G21+J21</f>
+        <f t="shared" si="5"/>
         <v>-84</v>
       </c>
       <c r="K22">
@@ -3177,15 +3192,15 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23">
-        <f t="shared" si="4"/>
+        <f>B22+dt</f>
         <v>1.5000000000000002</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E23" s="1"/>
@@ -3206,7 +3221,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J23">
-        <f>G22+J22</f>
+        <f t="shared" si="5"/>
         <v>-90</v>
       </c>
       <c r="K23">
@@ -3220,15 +3235,15 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24">
-        <f t="shared" si="4"/>
+        <f>B23+dt</f>
         <v>1.6000000000000003</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E24" s="1"/>
@@ -3249,7 +3264,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J24">
-        <f>G23+J23</f>
+        <f t="shared" si="5"/>
         <v>-96</v>
       </c>
       <c r="K24">
@@ -3263,15 +3278,15 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f t="shared" si="4"/>
+        <f>B24+dt</f>
         <v>1.7000000000000004</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E25" s="1"/>
@@ -3292,7 +3307,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J25">
-        <f>G24+J24</f>
+        <f t="shared" si="5"/>
         <v>-102</v>
       </c>
       <c r="K25">
@@ -3306,15 +3321,15 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f t="shared" si="4"/>
+        <f>B25+dt</f>
         <v>1.8000000000000005</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E26" s="1"/>
@@ -3335,7 +3350,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J26">
-        <f>G25+J25</f>
+        <f t="shared" si="5"/>
         <v>-108</v>
       </c>
       <c r="K26">
@@ -3349,15 +3364,15 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f t="shared" si="4"/>
+        <f>B26+dt</f>
         <v>1.9000000000000006</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E27" s="1"/>
@@ -3378,7 +3393,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J27">
-        <f>G26+J26</f>
+        <f t="shared" si="5"/>
         <v>-114</v>
       </c>
       <c r="K27">
@@ -3392,15 +3407,15 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28">
-        <f t="shared" si="4"/>
+        <f>B27+dt</f>
         <v>2.0000000000000004</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E28" s="1"/>
@@ -3421,7 +3436,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J28">
-        <f>G27+J27</f>
+        <f t="shared" si="5"/>
         <v>-120</v>
       </c>
       <c r="K28">
@@ -3435,15 +3450,15 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29">
-        <f t="shared" si="4"/>
+        <f>B28+dt</f>
         <v>2.1000000000000005</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E29" s="1"/>
@@ -3464,7 +3479,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J29">
-        <f>G28+J28</f>
+        <f t="shared" si="5"/>
         <v>-126</v>
       </c>
       <c r="K29">
@@ -3478,15 +3493,15 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30">
-        <f t="shared" si="4"/>
+        <f>B29+dt</f>
         <v>2.2000000000000006</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E30" s="1"/>
@@ -3507,7 +3522,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J30">
-        <f>G29+J29</f>
+        <f t="shared" si="5"/>
         <v>-132</v>
       </c>
       <c r="K30">
@@ -3521,15 +3536,15 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31">
-        <f t="shared" si="4"/>
+        <f>B30+dt</f>
         <v>2.3000000000000007</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E31" s="1"/>
@@ -3550,7 +3565,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J31">
-        <f>G30+J30</f>
+        <f t="shared" si="5"/>
         <v>-138</v>
       </c>
       <c r="K31">
@@ -3564,15 +3579,15 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32">
-        <f t="shared" si="4"/>
+        <f>B31+dt</f>
         <v>2.4000000000000008</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E32" s="1"/>
@@ -3593,7 +3608,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J32">
-        <f>G31+J31</f>
+        <f t="shared" si="5"/>
         <v>-144</v>
       </c>
       <c r="K32">
@@ -3607,15 +3622,15 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33">
-        <f t="shared" si="4"/>
+        <f>B32+dt</f>
         <v>2.5000000000000009</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E33" s="1"/>
@@ -3636,7 +3651,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J33">
-        <f>G32+J32</f>
+        <f t="shared" si="5"/>
         <v>-150</v>
       </c>
       <c r="K33">
@@ -3650,15 +3665,15 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34">
-        <f t="shared" si="4"/>
+        <f>B33+dt</f>
         <v>2.600000000000001</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E34" s="1"/>
@@ -3679,7 +3694,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J34">
-        <f>G33+J33</f>
+        <f t="shared" si="5"/>
         <v>-156</v>
       </c>
       <c r="K34">
@@ -3693,15 +3708,15 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35">
-        <f t="shared" si="4"/>
+        <f>B34+dt</f>
         <v>2.7000000000000011</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E35" s="1"/>
@@ -3722,7 +3737,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J35">
-        <f>G34+J34</f>
+        <f t="shared" si="5"/>
         <v>-162</v>
       </c>
       <c r="K35">
@@ -3736,15 +3751,15 @@
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36">
-        <f t="shared" si="4"/>
+        <f>B35+dt</f>
         <v>2.8000000000000012</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E36" s="1"/>
@@ -3765,7 +3780,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J36">
-        <f>G35+J35</f>
+        <f t="shared" si="5"/>
         <v>-168</v>
       </c>
       <c r="K36">
@@ -3779,15 +3794,15 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37">
-        <f t="shared" si="4"/>
+        <f>B36+dt</f>
         <v>2.9000000000000012</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E37" s="1"/>
@@ -3808,7 +3823,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J37">
-        <f>G36+J36</f>
+        <f t="shared" si="5"/>
         <v>-174</v>
       </c>
       <c r="K37">
@@ -3822,15 +3837,15 @@
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38">
-        <f t="shared" si="4"/>
+        <f>B37+dt</f>
         <v>3.0000000000000013</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E38" s="1"/>
@@ -3851,7 +3866,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J38">
-        <f>G37+J37</f>
+        <f t="shared" si="5"/>
         <v>-180</v>
       </c>
       <c r="K38">
@@ -3865,15 +3880,15 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39">
-        <f t="shared" si="4"/>
+        <f>B38+dt</f>
         <v>3.1000000000000014</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E39" s="1"/>
@@ -3894,7 +3909,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J39">
-        <f>G38+J38</f>
+        <f t="shared" si="5"/>
         <v>-186</v>
       </c>
       <c r="K39">
@@ -3908,15 +3923,15 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40">
-        <f t="shared" si="4"/>
+        <f>B39+dt</f>
         <v>3.2000000000000015</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E40" s="1"/>
@@ -3937,7 +3952,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J40">
-        <f>G39+J39</f>
+        <f t="shared" si="5"/>
         <v>-192</v>
       </c>
       <c r="K40">
@@ -3951,15 +3966,15 @@
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41">
-        <f t="shared" si="4"/>
+        <f>B40+dt</f>
         <v>3.3000000000000016</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E41" s="1"/>
@@ -3980,7 +3995,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J41">
-        <f>G40+J40</f>
+        <f t="shared" si="5"/>
         <v>-198</v>
       </c>
       <c r="K41">
@@ -3994,15 +4009,15 @@
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42">
-        <f t="shared" si="4"/>
+        <f>B41+dt</f>
         <v>3.4000000000000017</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E42" s="1"/>
@@ -4023,7 +4038,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J42">
-        <f>G41+J41</f>
+        <f t="shared" si="5"/>
         <v>-204</v>
       </c>
       <c r="K42">
@@ -4037,15 +4052,15 @@
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43">
-        <f t="shared" si="4"/>
+        <f>B42+dt</f>
         <v>3.5000000000000018</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E43" s="1"/>
@@ -4066,7 +4081,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J43">
-        <f>G42+J42</f>
+        <f t="shared" si="5"/>
         <v>-210</v>
       </c>
       <c r="K43">
@@ -4080,15 +4095,15 @@
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44">
-        <f t="shared" si="4"/>
+        <f>B43+dt</f>
         <v>3.6000000000000019</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E44" s="1"/>
@@ -4109,7 +4124,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J44">
-        <f>G43+J43</f>
+        <f t="shared" si="5"/>
         <v>-216</v>
       </c>
       <c r="K44">
@@ -4123,15 +4138,15 @@
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45">
-        <f t="shared" si="4"/>
+        <f>B44+dt</f>
         <v>3.700000000000002</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E45" s="1"/>
@@ -4152,7 +4167,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J45">
-        <f>G44+J44</f>
+        <f t="shared" si="5"/>
         <v>-222</v>
       </c>
       <c r="K45">
@@ -4166,15 +4181,15 @@
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46">
-        <f t="shared" si="4"/>
+        <f>B45+dt</f>
         <v>3.800000000000002</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E46" s="1"/>
@@ -4195,7 +4210,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J46">
-        <f>G45+J45</f>
+        <f t="shared" si="5"/>
         <v>-228</v>
       </c>
       <c r="K46">
@@ -4209,15 +4224,15 @@
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47">
-        <f t="shared" si="4"/>
+        <f>B46+dt</f>
         <v>3.9000000000000021</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E47" s="1"/>
@@ -4238,7 +4253,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J47">
-        <f>G46+J46</f>
+        <f t="shared" si="5"/>
         <v>-234</v>
       </c>
       <c r="K47">
@@ -4252,15 +4267,15 @@
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48">
-        <f t="shared" si="4"/>
+        <f>B47+dt</f>
         <v>4.0000000000000018</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E48" s="1"/>
@@ -4281,7 +4296,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J48">
-        <f>G47+J47</f>
+        <f t="shared" si="5"/>
         <v>-240</v>
       </c>
       <c r="K48">
@@ -4295,15 +4310,15 @@
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49">
-        <f t="shared" si="4"/>
+        <f>B48+dt</f>
         <v>4.1000000000000014</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E49" s="1"/>
@@ -4324,7 +4339,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J49">
-        <f>G48+J48</f>
+        <f t="shared" si="5"/>
         <v>-246</v>
       </c>
       <c r="K49">
@@ -4338,15 +4353,15 @@
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50">
-        <f t="shared" si="4"/>
+        <f>B49+dt</f>
         <v>4.2000000000000011</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E50" s="1"/>
@@ -4367,7 +4382,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J50">
-        <f>G49+J49</f>
+        <f t="shared" si="5"/>
         <v>-252</v>
       </c>
       <c r="K50">
@@ -4381,15 +4396,15 @@
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51">
-        <f t="shared" si="4"/>
+        <f>B50+dt</f>
         <v>4.3000000000000007</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E51" s="1"/>
@@ -4410,7 +4425,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J51">
-        <f>G50+J50</f>
+        <f t="shared" si="5"/>
         <v>-258</v>
       </c>
       <c r="K51">
@@ -4424,15 +4439,15 @@
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52">
-        <f t="shared" si="4"/>
+        <f>B51+dt</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E52" s="1"/>
@@ -4453,7 +4468,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J52">
-        <f>G51+J51</f>
+        <f t="shared" si="5"/>
         <v>-264</v>
       </c>
       <c r="K52">
@@ -4467,15 +4482,15 @@
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53">
-        <f t="shared" si="4"/>
+        <f>B52+dt</f>
         <v>4.5</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E53" s="1"/>
@@ -4496,7 +4511,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J53">
-        <f>G52+J52</f>
+        <f t="shared" si="5"/>
         <v>-270</v>
       </c>
       <c r="K53">
@@ -4510,15 +4525,15 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54">
-        <f t="shared" si="4"/>
+        <f>B53+dt</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E54" s="1"/>
@@ -4539,7 +4554,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J54">
-        <f>G53+J53</f>
+        <f t="shared" si="5"/>
         <v>-276</v>
       </c>
       <c r="K54">
@@ -4553,15 +4568,15 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55">
-        <f t="shared" si="4"/>
+        <f>B54+dt</f>
         <v>4.6999999999999993</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E55" s="1"/>
@@ -4582,7 +4597,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J55">
-        <f>G54+J54</f>
+        <f t="shared" si="5"/>
         <v>-282</v>
       </c>
       <c r="K55">
@@ -4596,15 +4611,15 @@
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56">
-        <f t="shared" si="4"/>
+        <f>B55+dt</f>
         <v>4.7999999999999989</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E56" s="1"/>
@@ -4625,7 +4640,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J56">
-        <f>G55+J55</f>
+        <f t="shared" si="5"/>
         <v>-288</v>
       </c>
       <c r="K56">
@@ -4639,15 +4654,15 @@
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57">
-        <f t="shared" si="4"/>
+        <f>B56+dt</f>
         <v>4.8999999999999986</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E57" s="1"/>
@@ -4668,7 +4683,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J57">
-        <f>G56+J56</f>
+        <f t="shared" si="5"/>
         <v>-294</v>
       </c>
       <c r="K57">
@@ -4682,15 +4697,15 @@
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58">
-        <f t="shared" si="4"/>
+        <f>B57+dt</f>
         <v>4.9999999999999982</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E58" s="1"/>
@@ -4711,7 +4726,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J58">
-        <f>G57+J57</f>
+        <f t="shared" si="5"/>
         <v>-300</v>
       </c>
       <c r="K58">
@@ -4725,15 +4740,15 @@
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59">
-        <f t="shared" si="4"/>
+        <f>B58+dt</f>
         <v>5.0999999999999979</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E59" s="1"/>
@@ -4754,7 +4769,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J59">
-        <f>G58+J58</f>
+        <f t="shared" si="5"/>
         <v>-306</v>
       </c>
       <c r="K59">
@@ -4768,15 +4783,15 @@
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60">
-        <f t="shared" si="4"/>
+        <f>B59+dt</f>
         <v>5.1999999999999975</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E60" s="1"/>
@@ -4797,7 +4812,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J60">
-        <f>G59+J59</f>
+        <f t="shared" si="5"/>
         <v>-312</v>
       </c>
       <c r="K60">
@@ -4811,15 +4826,15 @@
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61">
-        <f t="shared" si="4"/>
+        <f>B60+dt</f>
         <v>5.2999999999999972</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E61" s="1"/>
@@ -4840,7 +4855,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J61">
-        <f>G60+J60</f>
+        <f t="shared" si="5"/>
         <v>-318</v>
       </c>
       <c r="K61">
@@ -4854,15 +4869,15 @@
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62">
-        <f t="shared" si="4"/>
+        <f>B61+dt</f>
         <v>5.3999999999999968</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E62" s="1"/>
@@ -4883,7 +4898,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J62">
-        <f>G61+J61</f>
+        <f t="shared" si="5"/>
         <v>-324</v>
       </c>
       <c r="K62">
@@ -4897,15 +4912,15 @@
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63">
-        <f t="shared" si="4"/>
+        <f>B62+dt</f>
         <v>5.4999999999999964</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E63" s="1"/>
@@ -4926,7 +4941,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J63">
-        <f>G62+J62</f>
+        <f t="shared" si="5"/>
         <v>-330</v>
       </c>
       <c r="K63">
@@ -4940,15 +4955,15 @@
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64">
-        <f t="shared" si="4"/>
+        <f>B63+dt</f>
         <v>5.5999999999999961</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E64" s="1"/>
@@ -4969,7 +4984,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J64">
-        <f>G63+J63</f>
+        <f t="shared" si="5"/>
         <v>-336</v>
       </c>
       <c r="K64">
@@ -4983,15 +4998,15 @@
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65">
-        <f t="shared" si="4"/>
+        <f>B64+dt</f>
         <v>5.6999999999999957</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E65" s="1"/>
@@ -5012,7 +5027,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J65">
-        <f>G64+J64</f>
+        <f t="shared" si="5"/>
         <v>-342</v>
       </c>
       <c r="K65">
@@ -5026,15 +5041,15 @@
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66">
-        <f t="shared" si="4"/>
+        <f>B65+dt</f>
         <v>5.7999999999999954</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E66" s="1"/>
@@ -5055,7 +5070,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J66">
-        <f>G65+J65</f>
+        <f t="shared" si="5"/>
         <v>-348</v>
       </c>
       <c r="K66">
@@ -5069,15 +5084,15 @@
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67">
-        <f t="shared" si="4"/>
+        <f>B66+dt</f>
         <v>5.899999999999995</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E67" s="1"/>
@@ -5098,7 +5113,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J67">
-        <f>G66+J66</f>
+        <f t="shared" si="5"/>
         <v>-354</v>
       </c>
       <c r="K67">
@@ -5112,15 +5127,15 @@
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68">
-        <f t="shared" si="4"/>
+        <f>B67+dt</f>
         <v>5.9999999999999947</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E68" s="1"/>
@@ -5141,7 +5156,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J68">
-        <f>G67+J67</f>
+        <f t="shared" si="5"/>
         <v>-360</v>
       </c>
       <c r="K68">
@@ -5155,15 +5170,15 @@
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69">
-        <f t="shared" si="4"/>
+        <f>B68+dt</f>
         <v>6.0999999999999943</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E69" s="1"/>
@@ -5184,7 +5199,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J69">
-        <f>G68+J68</f>
+        <f t="shared" si="5"/>
         <v>-366</v>
       </c>
       <c r="K69">
@@ -5198,15 +5213,15 @@
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70">
-        <f t="shared" si="4"/>
+        <f>B69+dt</f>
         <v>6.199999999999994</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E70" s="1"/>
@@ -5227,7 +5242,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J70">
-        <f>G69+J69</f>
+        <f t="shared" si="5"/>
         <v>-372</v>
       </c>
       <c r="K70">
@@ -5241,15 +5256,15 @@
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71">
-        <f t="shared" si="4"/>
+        <f>B70+dt</f>
         <v>6.2999999999999936</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E71" s="1"/>
@@ -5270,7 +5285,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J71">
-        <f>G70+J70</f>
+        <f t="shared" si="5"/>
         <v>-378</v>
       </c>
       <c r="K71">
@@ -5284,15 +5299,15 @@
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72">
-        <f t="shared" si="4"/>
+        <f>B71+dt</f>
         <v>6.3999999999999932</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E72" s="1"/>
@@ -5313,7 +5328,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J72">
-        <f>G71+J71</f>
+        <f t="shared" si="5"/>
         <v>-384</v>
       </c>
       <c r="K72">
@@ -5327,15 +5342,15 @@
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73">
-        <f t="shared" si="4"/>
+        <f>B72+dt</f>
         <v>6.4999999999999929</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E73" s="1"/>
@@ -5356,7 +5371,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J73">
-        <f>G72+J72</f>
+        <f t="shared" si="5"/>
         <v>-390</v>
       </c>
       <c r="K73">
@@ -5370,15 +5385,15 @@
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74">
-        <f t="shared" ref="B74:B137" si="12">B73+0.1</f>
+        <f>B73+dt</f>
         <v>6.5999999999999925</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74:D137" si="13">C73</f>
+        <f t="shared" ref="C74:D137" si="12">C73</f>
         <v>300</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E74" s="1"/>
@@ -5399,7 +5414,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J74">
-        <f>G73+J73</f>
+        <f t="shared" ref="J74:J137" si="13">G73+J73</f>
         <v>-396</v>
       </c>
       <c r="K74">
@@ -5413,15 +5428,15 @@
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75">
-        <f t="shared" si="12"/>
+        <f>B74+dt</f>
         <v>6.6999999999999922</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E75" s="1"/>
@@ -5442,7 +5457,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J75">
-        <f>G74+J74</f>
+        <f t="shared" si="13"/>
         <v>-402</v>
       </c>
       <c r="K75">
@@ -5456,15 +5471,15 @@
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76">
-        <f t="shared" si="12"/>
+        <f>B75+dt</f>
         <v>6.7999999999999918</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E76" s="1"/>
@@ -5485,7 +5500,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J76">
-        <f>G75+J75</f>
+        <f t="shared" si="13"/>
         <v>-408</v>
       </c>
       <c r="K76">
@@ -5499,15 +5514,15 @@
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77">
-        <f t="shared" si="12"/>
+        <f>B76+dt</f>
         <v>6.8999999999999915</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E77" s="1"/>
@@ -5528,7 +5543,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J77">
-        <f>G76+J76</f>
+        <f t="shared" si="13"/>
         <v>-414</v>
       </c>
       <c r="K77">
@@ -5542,15 +5557,15 @@
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78">
-        <f t="shared" si="12"/>
+        <f>B77+dt</f>
         <v>6.9999999999999911</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E78" s="1"/>
@@ -5571,7 +5586,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J78">
-        <f>G77+J77</f>
+        <f t="shared" si="13"/>
         <v>-420</v>
       </c>
       <c r="K78">
@@ -5585,15 +5600,15 @@
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79">
-        <f t="shared" si="12"/>
+        <f>B78+dt</f>
         <v>7.0999999999999908</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E79" s="1"/>
@@ -5614,7 +5629,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J79">
-        <f>G78+J78</f>
+        <f t="shared" si="13"/>
         <v>-426</v>
       </c>
       <c r="K79">
@@ -5628,15 +5643,15 @@
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80">
-        <f t="shared" si="12"/>
+        <f>B79+dt</f>
         <v>7.1999999999999904</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E80" s="1"/>
@@ -5657,7 +5672,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J80">
-        <f>G79+J79</f>
+        <f t="shared" si="13"/>
         <v>-432</v>
       </c>
       <c r="K80">
@@ -5671,15 +5686,15 @@
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81">
-        <f t="shared" si="12"/>
+        <f>B80+dt</f>
         <v>7.2999999999999901</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E81" s="1"/>
@@ -5700,7 +5715,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J81">
-        <f>G80+J80</f>
+        <f t="shared" si="13"/>
         <v>-438</v>
       </c>
       <c r="K81">
@@ -5714,15 +5729,15 @@
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82">
-        <f t="shared" si="12"/>
+        <f>B81+dt</f>
         <v>7.3999999999999897</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E82" s="1"/>
@@ -5743,7 +5758,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J82">
-        <f>G81+J81</f>
+        <f t="shared" si="13"/>
         <v>-444</v>
       </c>
       <c r="K82">
@@ -5757,15 +5772,15 @@
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83">
-        <f t="shared" si="12"/>
+        <f>B82+dt</f>
         <v>7.4999999999999893</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E83" s="1"/>
@@ -5786,7 +5801,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J83">
-        <f>G82+J82</f>
+        <f t="shared" si="13"/>
         <v>-450</v>
       </c>
       <c r="K83">
@@ -5800,15 +5815,15 @@
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84">
-        <f t="shared" si="12"/>
+        <f>B83+dt</f>
         <v>7.599999999999989</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E84" s="1"/>
@@ -5829,7 +5844,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J84">
-        <f>G83+J83</f>
+        <f t="shared" si="13"/>
         <v>-456</v>
       </c>
       <c r="K84">
@@ -5843,15 +5858,15 @@
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85">
-        <f t="shared" si="12"/>
+        <f>B84+dt</f>
         <v>7.6999999999999886</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E85" s="1"/>
@@ -5872,7 +5887,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J85">
-        <f>G84+J84</f>
+        <f t="shared" si="13"/>
         <v>-462</v>
       </c>
       <c r="K85">
@@ -5886,15 +5901,15 @@
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86">
-        <f t="shared" si="12"/>
+        <f>B85+dt</f>
         <v>7.7999999999999883</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E86" s="1"/>
@@ -5915,7 +5930,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J86">
-        <f>G85+J85</f>
+        <f t="shared" si="13"/>
         <v>-468</v>
       </c>
       <c r="K86">
@@ -5929,15 +5944,15 @@
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87">
-        <f t="shared" si="12"/>
+        <f>B86+dt</f>
         <v>7.8999999999999879</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E87" s="1"/>
@@ -5958,7 +5973,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J87">
-        <f>G86+J86</f>
+        <f t="shared" si="13"/>
         <v>-474</v>
       </c>
       <c r="K87">
@@ -5972,15 +5987,15 @@
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88">
-        <f t="shared" si="12"/>
+        <f>B87+dt</f>
         <v>7.9999999999999876</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E88" s="1"/>
@@ -6001,7 +6016,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J88">
-        <f>G87+J87</f>
+        <f t="shared" si="13"/>
         <v>-480</v>
       </c>
       <c r="K88">
@@ -6015,15 +6030,15 @@
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89">
-        <f t="shared" si="12"/>
+        <f>B88+dt</f>
         <v>8.0999999999999872</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E89" s="1"/>
@@ -6044,7 +6059,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J89">
-        <f>G88+J88</f>
+        <f t="shared" si="13"/>
         <v>-486</v>
       </c>
       <c r="K89">
@@ -6058,15 +6073,15 @@
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90">
-        <f t="shared" si="12"/>
+        <f>B89+dt</f>
         <v>8.1999999999999869</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E90" s="1"/>
@@ -6087,7 +6102,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J90">
-        <f>G89+J89</f>
+        <f t="shared" si="13"/>
         <v>-492</v>
       </c>
       <c r="K90">
@@ -6101,15 +6116,15 @@
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91">
-        <f t="shared" si="12"/>
+        <f>B90+dt</f>
         <v>8.2999999999999865</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E91" s="1"/>
@@ -6130,7 +6145,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J91">
-        <f>G90+J90</f>
+        <f t="shared" si="13"/>
         <v>-498</v>
       </c>
       <c r="K91">
@@ -6144,15 +6159,15 @@
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92">
-        <f t="shared" si="12"/>
+        <f>B91+dt</f>
         <v>8.3999999999999861</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E92" s="1"/>
@@ -6173,7 +6188,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J92">
-        <f>G91+J91</f>
+        <f t="shared" si="13"/>
         <v>-504</v>
       </c>
       <c r="K92">
@@ -6187,15 +6202,15 @@
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93">
-        <f t="shared" si="12"/>
+        <f>B92+dt</f>
         <v>8.4999999999999858</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E93" s="1"/>
@@ -6216,7 +6231,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J93">
-        <f>G92+J92</f>
+        <f t="shared" si="13"/>
         <v>-510</v>
       </c>
       <c r="K93">
@@ -6230,15 +6245,15 @@
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94">
-        <f t="shared" si="12"/>
+        <f>B93+dt</f>
         <v>8.5999999999999854</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D94" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E94" s="1"/>
@@ -6259,7 +6274,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J94">
-        <f>G93+J93</f>
+        <f t="shared" si="13"/>
         <v>-516</v>
       </c>
       <c r="K94">
@@ -6273,15 +6288,15 @@
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95">
-        <f t="shared" si="12"/>
+        <f>B94+dt</f>
         <v>8.6999999999999851</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E95" s="1"/>
@@ -6302,7 +6317,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J95">
-        <f>G94+J94</f>
+        <f t="shared" si="13"/>
         <v>-522</v>
       </c>
       <c r="K95">
@@ -6316,15 +6331,15 @@
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96">
-        <f t="shared" si="12"/>
+        <f>B95+dt</f>
         <v>8.7999999999999847</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E96" s="1"/>
@@ -6345,7 +6360,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J96">
-        <f>G95+J95</f>
+        <f t="shared" si="13"/>
         <v>-528</v>
       </c>
       <c r="K96">
@@ -6359,15 +6374,15 @@
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97">
-        <f t="shared" si="12"/>
+        <f>B96+dt</f>
         <v>8.8999999999999844</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E97" s="1"/>
@@ -6388,7 +6403,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J97">
-        <f>G96+J96</f>
+        <f t="shared" si="13"/>
         <v>-534</v>
       </c>
       <c r="K97">
@@ -6402,15 +6417,15 @@
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98">
-        <f t="shared" si="12"/>
+        <f>B97+dt</f>
         <v>8.999999999999984</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E98" s="1"/>
@@ -6431,7 +6446,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J98">
-        <f>G97+J97</f>
+        <f t="shared" si="13"/>
         <v>-540</v>
       </c>
       <c r="K98">
@@ -6445,15 +6460,15 @@
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99">
-        <f t="shared" si="12"/>
+        <f>B98+dt</f>
         <v>9.0999999999999837</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D99" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E99" s="1"/>
@@ -6474,7 +6489,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J99">
-        <f>G98+J98</f>
+        <f t="shared" si="13"/>
         <v>-546</v>
       </c>
       <c r="K99">
@@ -6488,15 +6503,15 @@
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100">
-        <f t="shared" si="12"/>
+        <f>B99+dt</f>
         <v>9.1999999999999833</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E100" s="1"/>
@@ -6517,7 +6532,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J100">
-        <f>G99+J99</f>
+        <f t="shared" si="13"/>
         <v>-552</v>
       </c>
       <c r="K100">
@@ -6531,15 +6546,15 @@
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101">
-        <f t="shared" si="12"/>
+        <f>B100+dt</f>
         <v>9.2999999999999829</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D101" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E101" s="1"/>
@@ -6560,7 +6575,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J101">
-        <f>G100+J100</f>
+        <f t="shared" si="13"/>
         <v>-558</v>
       </c>
       <c r="K101">
@@ -6574,15 +6589,15 @@
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102">
-        <f t="shared" si="12"/>
+        <f>B101+dt</f>
         <v>9.3999999999999826</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D102" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E102" s="1"/>
@@ -6603,7 +6618,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J102">
-        <f>G101+J101</f>
+        <f t="shared" si="13"/>
         <v>-564</v>
       </c>
       <c r="K102">
@@ -6617,15 +6632,15 @@
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103">
-        <f t="shared" si="12"/>
+        <f>B102+dt</f>
         <v>9.4999999999999822</v>
       </c>
       <c r="C103" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D103" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E103" s="1"/>
@@ -6646,7 +6661,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J103">
-        <f>G102+J102</f>
+        <f t="shared" si="13"/>
         <v>-570</v>
       </c>
       <c r="K103">
@@ -6660,15 +6675,15 @@
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104">
-        <f t="shared" si="12"/>
+        <f>B103+dt</f>
         <v>9.5999999999999819</v>
       </c>
       <c r="C104" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D104" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E104" s="1"/>
@@ -6689,7 +6704,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J104">
-        <f>G103+J103</f>
+        <f t="shared" si="13"/>
         <v>-576</v>
       </c>
       <c r="K104">
@@ -6703,15 +6718,15 @@
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105">
-        <f t="shared" si="12"/>
+        <f>B104+dt</f>
         <v>9.6999999999999815</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E105" s="1"/>
@@ -6732,7 +6747,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J105">
-        <f>G104+J104</f>
+        <f t="shared" si="13"/>
         <v>-582</v>
       </c>
       <c r="K105">
@@ -6746,15 +6761,15 @@
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B106">
-        <f t="shared" si="12"/>
+        <f>B105+dt</f>
         <v>9.7999999999999812</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D106" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E106" s="1"/>
@@ -6775,7 +6790,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J106">
-        <f>G105+J105</f>
+        <f t="shared" si="13"/>
         <v>-588</v>
       </c>
       <c r="K106">
@@ -6789,15 +6804,15 @@
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107">
-        <f t="shared" si="12"/>
+        <f>B106+dt</f>
         <v>9.8999999999999808</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D107" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E107" s="1"/>
@@ -6818,7 +6833,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J107">
-        <f>G106+J106</f>
+        <f t="shared" si="13"/>
         <v>-594</v>
       </c>
       <c r="K107">
@@ -6832,15 +6847,15 @@
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B108">
-        <f t="shared" si="12"/>
+        <f>B107+dt</f>
         <v>9.9999999999999805</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D108" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E108" s="1"/>
@@ -6861,7 +6876,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J108">
-        <f>G107+J107</f>
+        <f t="shared" si="13"/>
         <v>-600</v>
       </c>
       <c r="K108">
@@ -6875,15 +6890,15 @@
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B109">
-        <f t="shared" si="12"/>
+        <f>B108+dt</f>
         <v>10.09999999999998</v>
       </c>
       <c r="C109" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D109" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E109" s="1"/>
@@ -6904,7 +6919,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J109">
-        <f>G108+J108</f>
+        <f t="shared" si="13"/>
         <v>-606</v>
       </c>
       <c r="K109">
@@ -6918,15 +6933,15 @@
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B110">
-        <f t="shared" si="12"/>
+        <f>B109+dt</f>
         <v>10.19999999999998</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D110" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E110" s="1"/>
@@ -6947,7 +6962,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J110">
-        <f>G109+J109</f>
+        <f t="shared" si="13"/>
         <v>-612</v>
       </c>
       <c r="K110">
@@ -6961,15 +6976,15 @@
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B111">
-        <f t="shared" si="12"/>
+        <f>B110+dt</f>
         <v>10.299999999999979</v>
       </c>
       <c r="C111" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D111" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E111" s="1"/>
@@ -6990,7 +7005,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J111">
-        <f>G110+J110</f>
+        <f t="shared" si="13"/>
         <v>-618</v>
       </c>
       <c r="K111">
@@ -7004,15 +7019,15 @@
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B112">
-        <f t="shared" si="12"/>
+        <f>B111+dt</f>
         <v>10.399999999999979</v>
       </c>
       <c r="C112" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D112" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E112" s="1"/>
@@ -7033,7 +7048,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J112">
-        <f>G111+J111</f>
+        <f t="shared" si="13"/>
         <v>-624</v>
       </c>
       <c r="K112">
@@ -7047,15 +7062,15 @@
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B113">
-        <f t="shared" si="12"/>
+        <f>B112+dt</f>
         <v>10.499999999999979</v>
       </c>
       <c r="C113" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D113" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E113" s="1"/>
@@ -7076,7 +7091,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J113">
-        <f>G112+J112</f>
+        <f t="shared" si="13"/>
         <v>-630</v>
       </c>
       <c r="K113">
@@ -7090,15 +7105,15 @@
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B114">
-        <f t="shared" si="12"/>
+        <f>B113+dt</f>
         <v>10.599999999999978</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D114" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E114" s="1"/>
@@ -7119,7 +7134,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J114">
-        <f>G113+J113</f>
+        <f t="shared" si="13"/>
         <v>-636</v>
       </c>
       <c r="K114">
@@ -7133,15 +7148,15 @@
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B115">
-        <f t="shared" si="12"/>
+        <f>B114+dt</f>
         <v>10.699999999999978</v>
       </c>
       <c r="C115" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D115" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E115" s="1"/>
@@ -7162,7 +7177,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J115">
-        <f>G114+J114</f>
+        <f t="shared" si="13"/>
         <v>-642</v>
       </c>
       <c r="K115">
@@ -7176,15 +7191,15 @@
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B116">
-        <f t="shared" si="12"/>
+        <f>B115+dt</f>
         <v>10.799999999999978</v>
       </c>
       <c r="C116" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D116" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E116" s="1"/>
@@ -7205,7 +7220,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J116">
-        <f>G115+J115</f>
+        <f t="shared" si="13"/>
         <v>-648</v>
       </c>
       <c r="K116">
@@ -7219,15 +7234,15 @@
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B117">
-        <f t="shared" si="12"/>
+        <f>B116+dt</f>
         <v>10.899999999999977</v>
       </c>
       <c r="C117" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D117" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E117" s="1"/>
@@ -7248,7 +7263,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J117">
-        <f>G116+J116</f>
+        <f t="shared" si="13"/>
         <v>-654</v>
       </c>
       <c r="K117">
@@ -7262,15 +7277,15 @@
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B118">
-        <f t="shared" si="12"/>
+        <f>B117+dt</f>
         <v>10.999999999999977</v>
       </c>
       <c r="C118" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D118" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E118" s="1"/>
@@ -7291,7 +7306,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J118">
-        <f>G117+J117</f>
+        <f t="shared" si="13"/>
         <v>-660</v>
       </c>
       <c r="K118">
@@ -7305,15 +7320,15 @@
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B119">
-        <f t="shared" si="12"/>
+        <f>B118+dt</f>
         <v>11.099999999999977</v>
       </c>
       <c r="C119" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D119" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E119" s="1"/>
@@ -7334,7 +7349,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J119">
-        <f>G118+J118</f>
+        <f t="shared" si="13"/>
         <v>-666</v>
       </c>
       <c r="K119">
@@ -7348,15 +7363,15 @@
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B120">
-        <f t="shared" si="12"/>
+        <f>B119+dt</f>
         <v>11.199999999999976</v>
       </c>
       <c r="C120" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D120" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E120" s="1"/>
@@ -7377,7 +7392,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J120">
-        <f>G119+J119</f>
+        <f t="shared" si="13"/>
         <v>-672</v>
       </c>
       <c r="K120">
@@ -7391,15 +7406,15 @@
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B121">
-        <f t="shared" si="12"/>
+        <f>B120+dt</f>
         <v>11.299999999999976</v>
       </c>
       <c r="C121" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D121" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E121" s="1"/>
@@ -7420,7 +7435,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J121">
-        <f>G120+J120</f>
+        <f t="shared" si="13"/>
         <v>-678</v>
       </c>
       <c r="K121">
@@ -7434,15 +7449,15 @@
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B122">
-        <f t="shared" si="12"/>
+        <f>B121+dt</f>
         <v>11.399999999999975</v>
       </c>
       <c r="C122" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D122" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E122" s="1"/>
@@ -7463,7 +7478,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J122">
-        <f>G121+J121</f>
+        <f t="shared" si="13"/>
         <v>-684</v>
       </c>
       <c r="K122">
@@ -7477,15 +7492,15 @@
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B123">
-        <f t="shared" si="12"/>
+        <f>B122+dt</f>
         <v>11.499999999999975</v>
       </c>
       <c r="C123" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D123" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E123" s="1"/>
@@ -7506,7 +7521,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J123">
-        <f>G122+J122</f>
+        <f t="shared" si="13"/>
         <v>-690</v>
       </c>
       <c r="K123">
@@ -7520,15 +7535,15 @@
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B124">
-        <f t="shared" si="12"/>
+        <f>B123+dt</f>
         <v>11.599999999999975</v>
       </c>
       <c r="C124" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D124" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E124" s="1"/>
@@ -7549,7 +7564,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J124">
-        <f>G123+J123</f>
+        <f t="shared" si="13"/>
         <v>-696</v>
       </c>
       <c r="K124">
@@ -7563,15 +7578,15 @@
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B125">
-        <f t="shared" si="12"/>
+        <f>B124+dt</f>
         <v>11.699999999999974</v>
       </c>
       <c r="C125" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D125" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E125" s="1"/>
@@ -7592,7 +7607,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J125">
-        <f>G124+J124</f>
+        <f t="shared" si="13"/>
         <v>-702</v>
       </c>
       <c r="K125">
@@ -7606,15 +7621,15 @@
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B126">
-        <f t="shared" si="12"/>
+        <f>B125+dt</f>
         <v>11.799999999999974</v>
       </c>
       <c r="C126" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D126" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E126" s="1"/>
@@ -7635,7 +7650,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J126">
-        <f>G125+J125</f>
+        <f t="shared" si="13"/>
         <v>-708</v>
       </c>
       <c r="K126">
@@ -7649,15 +7664,15 @@
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B127">
-        <f t="shared" si="12"/>
+        <f>B126+dt</f>
         <v>11.899999999999974</v>
       </c>
       <c r="C127" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D127" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E127" s="1"/>
@@ -7678,7 +7693,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J127">
-        <f>G126+J126</f>
+        <f t="shared" si="13"/>
         <v>-714</v>
       </c>
       <c r="K127">
@@ -7692,15 +7707,15 @@
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B128">
-        <f t="shared" si="12"/>
+        <f>B127+dt</f>
         <v>11.999999999999973</v>
       </c>
       <c r="C128" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D128" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E128" s="1"/>
@@ -7721,7 +7736,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J128">
-        <f>G127+J127</f>
+        <f t="shared" si="13"/>
         <v>-720</v>
       </c>
       <c r="K128">
@@ -7735,15 +7750,15 @@
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B129">
-        <f t="shared" si="12"/>
+        <f>B128+dt</f>
         <v>12.099999999999973</v>
       </c>
       <c r="C129" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D129" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E129" s="1"/>
@@ -7764,7 +7779,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J129">
-        <f>G128+J128</f>
+        <f t="shared" si="13"/>
         <v>-726</v>
       </c>
       <c r="K129">
@@ -7778,15 +7793,15 @@
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B130">
-        <f t="shared" si="12"/>
+        <f>B129+dt</f>
         <v>12.199999999999973</v>
       </c>
       <c r="C130" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D130" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E130" s="1"/>
@@ -7807,7 +7822,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J130">
-        <f>G129+J129</f>
+        <f t="shared" si="13"/>
         <v>-732</v>
       </c>
       <c r="K130">
@@ -7821,15 +7836,15 @@
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B131">
-        <f t="shared" si="12"/>
+        <f>B130+dt</f>
         <v>12.299999999999972</v>
       </c>
       <c r="C131" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D131" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E131" s="1"/>
@@ -7850,7 +7865,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J131">
-        <f>G130+J130</f>
+        <f t="shared" si="13"/>
         <v>-738</v>
       </c>
       <c r="K131">
@@ -7864,15 +7879,15 @@
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B132">
-        <f t="shared" si="12"/>
+        <f>B131+dt</f>
         <v>12.399999999999972</v>
       </c>
       <c r="C132" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D132" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E132" s="1"/>
@@ -7893,7 +7908,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J132">
-        <f>G131+J131</f>
+        <f t="shared" si="13"/>
         <v>-744</v>
       </c>
       <c r="K132">
@@ -7907,15 +7922,15 @@
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B133">
-        <f t="shared" si="12"/>
+        <f>B132+dt</f>
         <v>12.499999999999972</v>
       </c>
       <c r="C133" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D133" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E133" s="1"/>
@@ -7936,7 +7951,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J133">
-        <f>G132+J132</f>
+        <f t="shared" si="13"/>
         <v>-750</v>
       </c>
       <c r="K133">
@@ -7950,15 +7965,15 @@
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B134">
-        <f t="shared" si="12"/>
+        <f>B133+dt</f>
         <v>12.599999999999971</v>
       </c>
       <c r="C134" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D134" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E134" s="1"/>
@@ -7979,7 +7994,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J134">
-        <f>G133+J133</f>
+        <f t="shared" si="13"/>
         <v>-756</v>
       </c>
       <c r="K134">
@@ -7993,15 +8008,15 @@
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B135">
-        <f t="shared" si="12"/>
+        <f>B134+dt</f>
         <v>12.699999999999971</v>
       </c>
       <c r="C135" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D135" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E135" s="1"/>
@@ -8022,7 +8037,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J135">
-        <f>G134+J134</f>
+        <f t="shared" si="13"/>
         <v>-762</v>
       </c>
       <c r="K135">
@@ -8036,15 +8051,15 @@
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B136">
-        <f t="shared" si="12"/>
+        <f>B135+dt</f>
         <v>12.799999999999971</v>
       </c>
       <c r="C136" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D136" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E136" s="1"/>
@@ -8065,7 +8080,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J136">
-        <f>G135+J135</f>
+        <f t="shared" si="13"/>
         <v>-768</v>
       </c>
       <c r="K136">
@@ -8079,15 +8094,15 @@
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B137">
-        <f t="shared" si="12"/>
+        <f>B136+dt</f>
         <v>12.89999999999997</v>
       </c>
       <c r="C137" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="D137" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E137" s="1"/>
@@ -8108,7 +8123,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J137">
-        <f>G136+J136</f>
+        <f t="shared" si="13"/>
         <v>-774</v>
       </c>
       <c r="K137">
@@ -8122,15 +8137,15 @@
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B138">
-        <f t="shared" ref="B138:B201" si="20">B137+0.1</f>
+        <f>B137+dt</f>
         <v>12.99999999999997</v>
       </c>
       <c r="C138" s="1">
-        <f t="shared" ref="C138:D201" si="21">C137</f>
+        <f t="shared" ref="C138:D201" si="20">C137</f>
         <v>300</v>
       </c>
       <c r="D138" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E138" s="1"/>
@@ -8151,7 +8166,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J138">
-        <f>G137+J137</f>
+        <f t="shared" ref="J138:J201" si="21">G137+J137</f>
         <v>-780</v>
       </c>
       <c r="K138">
@@ -8165,15 +8180,15 @@
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B139">
-        <f t="shared" si="20"/>
+        <f>B138+dt</f>
         <v>13.099999999999969</v>
       </c>
       <c r="C139" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D139" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E139" s="1"/>
@@ -8194,7 +8209,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J139">
-        <f>G138+J138</f>
+        <f t="shared" si="21"/>
         <v>-786</v>
       </c>
       <c r="K139">
@@ -8208,15 +8223,15 @@
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B140">
-        <f t="shared" si="20"/>
+        <f>B139+dt</f>
         <v>13.199999999999969</v>
       </c>
       <c r="C140" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D140" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E140" s="1"/>
@@ -8237,7 +8252,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J140">
-        <f>G139+J139</f>
+        <f t="shared" si="21"/>
         <v>-792</v>
       </c>
       <c r="K140">
@@ -8251,15 +8266,15 @@
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B141">
-        <f t="shared" si="20"/>
+        <f>B140+dt</f>
         <v>13.299999999999969</v>
       </c>
       <c r="C141" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D141" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E141" s="1"/>
@@ -8280,7 +8295,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J141">
-        <f>G140+J140</f>
+        <f t="shared" si="21"/>
         <v>-798</v>
       </c>
       <c r="K141">
@@ -8294,15 +8309,15 @@
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B142">
-        <f t="shared" si="20"/>
+        <f>B141+dt</f>
         <v>13.399999999999968</v>
       </c>
       <c r="C142" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D142" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E142" s="1"/>
@@ -8323,7 +8338,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J142">
-        <f>G141+J141</f>
+        <f t="shared" si="21"/>
         <v>-804</v>
       </c>
       <c r="K142">
@@ -8337,15 +8352,15 @@
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B143">
-        <f t="shared" si="20"/>
+        <f>B142+dt</f>
         <v>13.499999999999968</v>
       </c>
       <c r="C143" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D143" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E143" s="1"/>
@@ -8366,7 +8381,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J143">
-        <f>G142+J142</f>
+        <f t="shared" si="21"/>
         <v>-810</v>
       </c>
       <c r="K143">
@@ -8380,15 +8395,15 @@
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B144">
-        <f t="shared" si="20"/>
+        <f>B143+dt</f>
         <v>13.599999999999968</v>
       </c>
       <c r="C144" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D144" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E144" s="1"/>
@@ -8409,7 +8424,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J144">
-        <f>G143+J143</f>
+        <f t="shared" si="21"/>
         <v>-816</v>
       </c>
       <c r="K144">
@@ -8423,15 +8438,15 @@
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B145">
-        <f t="shared" si="20"/>
+        <f>B144+dt</f>
         <v>13.699999999999967</v>
       </c>
       <c r="C145" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D145" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E145" s="1"/>
@@ -8452,7 +8467,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J145">
-        <f>G144+J144</f>
+        <f t="shared" si="21"/>
         <v>-822</v>
       </c>
       <c r="K145">
@@ -8466,15 +8481,15 @@
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B146">
-        <f t="shared" si="20"/>
+        <f>B145+dt</f>
         <v>13.799999999999967</v>
       </c>
       <c r="C146" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D146" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E146" s="1"/>
@@ -8495,7 +8510,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J146">
-        <f>G145+J145</f>
+        <f t="shared" si="21"/>
         <v>-828</v>
       </c>
       <c r="K146">
@@ -8509,15 +8524,15 @@
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B147">
-        <f t="shared" si="20"/>
+        <f>B146+dt</f>
         <v>13.899999999999967</v>
       </c>
       <c r="C147" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D147" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E147" s="1"/>
@@ -8538,7 +8553,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J147">
-        <f>G146+J146</f>
+        <f t="shared" si="21"/>
         <v>-834</v>
       </c>
       <c r="K147">
@@ -8552,15 +8567,15 @@
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B148">
-        <f t="shared" si="20"/>
+        <f>B147+dt</f>
         <v>13.999999999999966</v>
       </c>
       <c r="C148" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D148" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E148" s="1"/>
@@ -8581,7 +8596,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J148">
-        <f>G147+J147</f>
+        <f t="shared" si="21"/>
         <v>-840</v>
       </c>
       <c r="K148">
@@ -8595,15 +8610,15 @@
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B149">
-        <f t="shared" si="20"/>
+        <f>B148+dt</f>
         <v>14.099999999999966</v>
       </c>
       <c r="C149" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D149" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E149" s="1"/>
@@ -8624,7 +8639,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J149">
-        <f>G148+J148</f>
+        <f t="shared" si="21"/>
         <v>-846</v>
       </c>
       <c r="K149">
@@ -8638,15 +8653,15 @@
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B150">
-        <f t="shared" si="20"/>
+        <f>B149+dt</f>
         <v>14.199999999999966</v>
       </c>
       <c r="C150" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D150" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E150" s="1"/>
@@ -8667,7 +8682,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J150">
-        <f>G149+J149</f>
+        <f t="shared" si="21"/>
         <v>-852</v>
       </c>
       <c r="K150">
@@ -8681,15 +8696,15 @@
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B151">
-        <f t="shared" si="20"/>
+        <f>B150+dt</f>
         <v>14.299999999999965</v>
       </c>
       <c r="C151" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D151" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E151" s="1"/>
@@ -8710,7 +8725,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J151">
-        <f>G150+J150</f>
+        <f t="shared" si="21"/>
         <v>-858</v>
       </c>
       <c r="K151">
@@ -8724,15 +8739,15 @@
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B152">
-        <f t="shared" si="20"/>
+        <f>B151+dt</f>
         <v>14.399999999999965</v>
       </c>
       <c r="C152" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D152" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E152" s="1"/>
@@ -8753,7 +8768,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J152">
-        <f>G151+J151</f>
+        <f t="shared" si="21"/>
         <v>-864</v>
       </c>
       <c r="K152">
@@ -8767,15 +8782,15 @@
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B153">
-        <f t="shared" si="20"/>
+        <f>B152+dt</f>
         <v>14.499999999999964</v>
       </c>
       <c r="C153" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D153" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E153" s="1"/>
@@ -8796,7 +8811,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J153">
-        <f>G152+J152</f>
+        <f t="shared" si="21"/>
         <v>-870</v>
       </c>
       <c r="K153">
@@ -8810,15 +8825,15 @@
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B154">
-        <f t="shared" si="20"/>
+        <f>B153+dt</f>
         <v>14.599999999999964</v>
       </c>
       <c r="C154" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D154" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E154" s="1"/>
@@ -8839,7 +8854,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J154">
-        <f>G153+J153</f>
+        <f t="shared" si="21"/>
         <v>-876</v>
       </c>
       <c r="K154">
@@ -8853,15 +8868,15 @@
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B155">
-        <f t="shared" si="20"/>
+        <f>B154+dt</f>
         <v>14.699999999999964</v>
       </c>
       <c r="C155" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D155" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E155" s="1"/>
@@ -8882,7 +8897,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J155">
-        <f>G154+J154</f>
+        <f t="shared" si="21"/>
         <v>-882</v>
       </c>
       <c r="K155">
@@ -8896,15 +8911,15 @@
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B156">
-        <f t="shared" si="20"/>
+        <f>B155+dt</f>
         <v>14.799999999999963</v>
       </c>
       <c r="C156" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D156" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E156" s="1"/>
@@ -8925,7 +8940,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J156">
-        <f>G155+J155</f>
+        <f t="shared" si="21"/>
         <v>-888</v>
       </c>
       <c r="K156">
@@ -8939,15 +8954,15 @@
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B157">
-        <f t="shared" si="20"/>
+        <f>B156+dt</f>
         <v>14.899999999999963</v>
       </c>
       <c r="C157" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D157" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E157" s="1"/>
@@ -8968,7 +8983,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J157">
-        <f>G156+J156</f>
+        <f t="shared" si="21"/>
         <v>-894</v>
       </c>
       <c r="K157">
@@ -8982,15 +8997,15 @@
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B158">
-        <f t="shared" si="20"/>
+        <f>B157+dt</f>
         <v>14.999999999999963</v>
       </c>
       <c r="C158" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D158" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E158" s="1"/>
@@ -9011,7 +9026,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J158">
-        <f>G157+J157</f>
+        <f t="shared" si="21"/>
         <v>-900</v>
       </c>
       <c r="K158">
@@ -9025,15 +9040,15 @@
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B159">
-        <f t="shared" si="20"/>
+        <f>B158+dt</f>
         <v>15.099999999999962</v>
       </c>
       <c r="C159" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D159" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E159" s="1"/>
@@ -9054,7 +9069,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J159">
-        <f>G158+J158</f>
+        <f t="shared" si="21"/>
         <v>-906</v>
       </c>
       <c r="K159">
@@ -9068,15 +9083,15 @@
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B160">
-        <f t="shared" si="20"/>
+        <f>B159+dt</f>
         <v>15.199999999999962</v>
       </c>
       <c r="C160" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D160" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E160" s="1"/>
@@ -9097,7 +9112,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J160">
-        <f>G159+J159</f>
+        <f t="shared" si="21"/>
         <v>-912</v>
       </c>
       <c r="K160">
@@ -9111,15 +9126,15 @@
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B161">
-        <f t="shared" si="20"/>
+        <f>B160+dt</f>
         <v>15.299999999999962</v>
       </c>
       <c r="C161" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D161" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E161" s="1"/>
@@ -9140,7 +9155,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J161">
-        <f>G160+J160</f>
+        <f t="shared" si="21"/>
         <v>-918</v>
       </c>
       <c r="K161">
@@ -9154,15 +9169,15 @@
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B162">
-        <f t="shared" si="20"/>
+        <f>B161+dt</f>
         <v>15.399999999999961</v>
       </c>
       <c r="C162" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D162" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E162" s="1"/>
@@ -9183,7 +9198,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J162">
-        <f>G161+J161</f>
+        <f t="shared" si="21"/>
         <v>-924</v>
       </c>
       <c r="K162">
@@ -9197,15 +9212,15 @@
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B163">
-        <f t="shared" si="20"/>
+        <f>B162+dt</f>
         <v>15.499999999999961</v>
       </c>
       <c r="C163" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D163" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E163" s="1"/>
@@ -9226,7 +9241,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J163">
-        <f>G162+J162</f>
+        <f t="shared" si="21"/>
         <v>-930</v>
       </c>
       <c r="K163">
@@ -9240,15 +9255,15 @@
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B164">
-        <f t="shared" si="20"/>
+        <f>B163+dt</f>
         <v>15.599999999999961</v>
       </c>
       <c r="C164" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D164" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E164" s="1"/>
@@ -9269,7 +9284,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J164">
-        <f>G163+J163</f>
+        <f t="shared" si="21"/>
         <v>-936</v>
       </c>
       <c r="K164">
@@ -9283,15 +9298,15 @@
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B165">
-        <f t="shared" si="20"/>
+        <f>B164+dt</f>
         <v>15.69999999999996</v>
       </c>
       <c r="C165" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D165" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E165" s="1"/>
@@ -9312,7 +9327,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J165">
-        <f>G164+J164</f>
+        <f t="shared" si="21"/>
         <v>-942</v>
       </c>
       <c r="K165">
@@ -9326,15 +9341,15 @@
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B166">
-        <f t="shared" si="20"/>
+        <f>B165+dt</f>
         <v>15.79999999999996</v>
       </c>
       <c r="C166" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D166" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E166" s="1"/>
@@ -9355,7 +9370,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J166">
-        <f>G165+J165</f>
+        <f t="shared" si="21"/>
         <v>-948</v>
       </c>
       <c r="K166">
@@ -9369,15 +9384,15 @@
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B167">
-        <f t="shared" si="20"/>
+        <f>B166+dt</f>
         <v>15.899999999999959</v>
       </c>
       <c r="C167" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D167" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E167" s="1"/>
@@ -9398,7 +9413,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J167">
-        <f>G166+J166</f>
+        <f t="shared" si="21"/>
         <v>-954</v>
       </c>
       <c r="K167">
@@ -9412,15 +9427,15 @@
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B168">
-        <f t="shared" si="20"/>
+        <f>B167+dt</f>
         <v>15.999999999999959</v>
       </c>
       <c r="C168" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D168" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E168" s="1"/>
@@ -9441,7 +9456,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J168">
-        <f>G167+J167</f>
+        <f t="shared" si="21"/>
         <v>-960</v>
       </c>
       <c r="K168">
@@ -9455,15 +9470,15 @@
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B169">
-        <f t="shared" si="20"/>
+        <f>B168+dt</f>
         <v>16.099999999999959</v>
       </c>
       <c r="C169" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D169" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E169" s="1"/>
@@ -9484,7 +9499,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J169">
-        <f>G168+J168</f>
+        <f t="shared" si="21"/>
         <v>-966</v>
       </c>
       <c r="K169">
@@ -9498,15 +9513,15 @@
     </row>
     <row r="170" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B170">
-        <f t="shared" si="20"/>
+        <f>B169+dt</f>
         <v>16.19999999999996</v>
       </c>
       <c r="C170" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D170" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E170" s="1"/>
@@ -9527,7 +9542,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J170">
-        <f>G169+J169</f>
+        <f t="shared" si="21"/>
         <v>-972</v>
       </c>
       <c r="K170">
@@ -9541,15 +9556,15 @@
     </row>
     <row r="171" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B171">
-        <f t="shared" si="20"/>
+        <f>B170+dt</f>
         <v>16.299999999999962</v>
       </c>
       <c r="C171" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D171" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E171" s="1"/>
@@ -9570,7 +9585,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J171">
-        <f>G170+J170</f>
+        <f t="shared" si="21"/>
         <v>-978</v>
       </c>
       <c r="K171">
@@ -9584,15 +9599,15 @@
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B172">
-        <f t="shared" si="20"/>
+        <f>B171+dt</f>
         <v>16.399999999999963</v>
       </c>
       <c r="C172" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D172" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E172" s="1"/>
@@ -9613,7 +9628,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J172">
-        <f>G171+J171</f>
+        <f t="shared" si="21"/>
         <v>-984</v>
       </c>
       <c r="K172">
@@ -9627,15 +9642,15 @@
     </row>
     <row r="173" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B173">
-        <f t="shared" si="20"/>
+        <f>B172+dt</f>
         <v>16.499999999999964</v>
       </c>
       <c r="C173" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D173" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E173" s="1"/>
@@ -9656,7 +9671,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J173">
-        <f>G172+J172</f>
+        <f t="shared" si="21"/>
         <v>-990</v>
       </c>
       <c r="K173">
@@ -9670,15 +9685,15 @@
     </row>
     <row r="174" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B174">
-        <f t="shared" si="20"/>
+        <f>B173+dt</f>
         <v>16.599999999999966</v>
       </c>
       <c r="C174" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D174" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E174" s="1"/>
@@ -9699,7 +9714,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J174">
-        <f>G173+J173</f>
+        <f t="shared" si="21"/>
         <v>-996</v>
       </c>
       <c r="K174">
@@ -9713,15 +9728,15 @@
     </row>
     <row r="175" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B175">
-        <f t="shared" si="20"/>
+        <f>B174+dt</f>
         <v>16.699999999999967</v>
       </c>
       <c r="C175" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D175" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E175" s="1"/>
@@ -9742,7 +9757,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J175">
-        <f>G174+J174</f>
+        <f t="shared" si="21"/>
         <v>-1002</v>
       </c>
       <c r="K175">
@@ -9756,15 +9771,15 @@
     </row>
     <row r="176" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B176">
-        <f t="shared" si="20"/>
+        <f>B175+dt</f>
         <v>16.799999999999969</v>
       </c>
       <c r="C176" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D176" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E176" s="1"/>
@@ -9785,7 +9800,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J176">
-        <f>G175+J175</f>
+        <f t="shared" si="21"/>
         <v>-1008</v>
       </c>
       <c r="K176">
@@ -9799,15 +9814,15 @@
     </row>
     <row r="177" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B177">
-        <f t="shared" si="20"/>
+        <f>B176+dt</f>
         <v>16.89999999999997</v>
       </c>
       <c r="C177" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D177" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E177" s="1"/>
@@ -9828,7 +9843,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J177">
-        <f>G176+J176</f>
+        <f t="shared" si="21"/>
         <v>-1014</v>
       </c>
       <c r="K177">
@@ -9842,15 +9857,15 @@
     </row>
     <row r="178" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B178">
-        <f t="shared" si="20"/>
+        <f>B177+dt</f>
         <v>16.999999999999972</v>
       </c>
       <c r="C178" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D178" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E178" s="1"/>
@@ -9871,7 +9886,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J178">
-        <f>G177+J177</f>
+        <f t="shared" si="21"/>
         <v>-1020</v>
       </c>
       <c r="K178">
@@ -9885,15 +9900,15 @@
     </row>
     <row r="179" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B179">
-        <f t="shared" si="20"/>
+        <f>B178+dt</f>
         <v>17.099999999999973</v>
       </c>
       <c r="C179" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D179" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E179" s="1"/>
@@ -9914,7 +9929,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J179">
-        <f>G178+J178</f>
+        <f t="shared" si="21"/>
         <v>-1026</v>
       </c>
       <c r="K179">
@@ -9928,15 +9943,15 @@
     </row>
     <row r="180" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B180">
-        <f t="shared" si="20"/>
+        <f>B179+dt</f>
         <v>17.199999999999974</v>
       </c>
       <c r="C180" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D180" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E180" s="1"/>
@@ -9957,7 +9972,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J180">
-        <f>G179+J179</f>
+        <f t="shared" si="21"/>
         <v>-1032</v>
       </c>
       <c r="K180">
@@ -9971,15 +9986,15 @@
     </row>
     <row r="181" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B181">
-        <f t="shared" si="20"/>
+        <f>B180+dt</f>
         <v>17.299999999999976</v>
       </c>
       <c r="C181" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D181" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E181" s="1"/>
@@ -10000,7 +10015,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J181">
-        <f>G180+J180</f>
+        <f t="shared" si="21"/>
         <v>-1038</v>
       </c>
       <c r="K181">
@@ -10014,15 +10029,15 @@
     </row>
     <row r="182" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B182">
-        <f t="shared" si="20"/>
+        <f>B181+dt</f>
         <v>17.399999999999977</v>
       </c>
       <c r="C182" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D182" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E182" s="1"/>
@@ -10043,7 +10058,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J182">
-        <f>G181+J181</f>
+        <f t="shared" si="21"/>
         <v>-1044</v>
       </c>
       <c r="K182">
@@ -10057,15 +10072,15 @@
     </row>
     <row r="183" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B183">
-        <f t="shared" si="20"/>
+        <f>B182+dt</f>
         <v>17.499999999999979</v>
       </c>
       <c r="C183" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D183" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E183" s="1"/>
@@ -10086,7 +10101,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J183">
-        <f>G182+J182</f>
+        <f t="shared" si="21"/>
         <v>-1050</v>
       </c>
       <c r="K183">
@@ -10100,15 +10115,15 @@
     </row>
     <row r="184" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B184">
-        <f t="shared" si="20"/>
+        <f>B183+dt</f>
         <v>17.59999999999998</v>
       </c>
       <c r="C184" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D184" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E184" s="1"/>
@@ -10129,7 +10144,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J184">
-        <f>G183+J183</f>
+        <f t="shared" si="21"/>
         <v>-1056</v>
       </c>
       <c r="K184">
@@ -10143,15 +10158,15 @@
     </row>
     <row r="185" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B185">
-        <f t="shared" si="20"/>
+        <f>B184+dt</f>
         <v>17.699999999999982</v>
       </c>
       <c r="C185" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D185" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E185" s="1"/>
@@ -10172,7 +10187,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J185">
-        <f>G184+J184</f>
+        <f t="shared" si="21"/>
         <v>-1062</v>
       </c>
       <c r="K185">
@@ -10186,15 +10201,15 @@
     </row>
     <row r="186" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B186">
-        <f t="shared" si="20"/>
+        <f>B185+dt</f>
         <v>17.799999999999983</v>
       </c>
       <c r="C186" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D186" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E186" s="1"/>
@@ -10215,7 +10230,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J186">
-        <f>G185+J185</f>
+        <f t="shared" si="21"/>
         <v>-1068</v>
       </c>
       <c r="K186">
@@ -10229,15 +10244,15 @@
     </row>
     <row r="187" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B187">
-        <f t="shared" si="20"/>
+        <f>B186+dt</f>
         <v>17.899999999999984</v>
       </c>
       <c r="C187" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D187" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E187" s="1"/>
@@ -10258,7 +10273,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J187">
-        <f>G186+J186</f>
+        <f t="shared" si="21"/>
         <v>-1074</v>
       </c>
       <c r="K187">
@@ -10272,15 +10287,15 @@
     </row>
     <row r="188" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B188">
-        <f t="shared" si="20"/>
+        <f>B187+dt</f>
         <v>17.999999999999986</v>
       </c>
       <c r="C188" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D188" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E188" s="1"/>
@@ -10301,7 +10316,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J188">
-        <f>G187+J187</f>
+        <f t="shared" si="21"/>
         <v>-1080</v>
       </c>
       <c r="K188">
@@ -10315,15 +10330,15 @@
     </row>
     <row r="189" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B189">
-        <f t="shared" si="20"/>
+        <f>B188+dt</f>
         <v>18.099999999999987</v>
       </c>
       <c r="C189" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D189" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E189" s="1"/>
@@ -10344,7 +10359,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J189">
-        <f>G188+J188</f>
+        <f t="shared" si="21"/>
         <v>-1086</v>
       </c>
       <c r="K189">
@@ -10358,15 +10373,15 @@
     </row>
     <row r="190" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B190">
-        <f t="shared" si="20"/>
+        <f>B189+dt</f>
         <v>18.199999999999989</v>
       </c>
       <c r="C190" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D190" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E190" s="1"/>
@@ -10387,7 +10402,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J190">
-        <f>G189+J189</f>
+        <f t="shared" si="21"/>
         <v>-1092</v>
       </c>
       <c r="K190">
@@ -10401,15 +10416,15 @@
     </row>
     <row r="191" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B191">
-        <f t="shared" si="20"/>
+        <f>B190+dt</f>
         <v>18.29999999999999</v>
       </c>
       <c r="C191" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D191" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E191" s="1"/>
@@ -10430,7 +10445,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J191">
-        <f>G190+J190</f>
+        <f t="shared" si="21"/>
         <v>-1098</v>
       </c>
       <c r="K191">
@@ -10444,15 +10459,15 @@
     </row>
     <row r="192" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B192">
-        <f t="shared" si="20"/>
+        <f>B191+dt</f>
         <v>18.399999999999991</v>
       </c>
       <c r="C192" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D192" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E192" s="1"/>
@@ -10473,7 +10488,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J192">
-        <f>G191+J191</f>
+        <f t="shared" si="21"/>
         <v>-1104</v>
       </c>
       <c r="K192">
@@ -10487,15 +10502,15 @@
     </row>
     <row r="193" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B193">
-        <f t="shared" si="20"/>
+        <f>B192+dt</f>
         <v>18.499999999999993</v>
       </c>
       <c r="C193" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D193" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E193" s="1"/>
@@ -10516,7 +10531,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J193">
-        <f>G192+J192</f>
+        <f t="shared" si="21"/>
         <v>-1110</v>
       </c>
       <c r="K193">
@@ -10530,15 +10545,15 @@
     </row>
     <row r="194" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B194">
-        <f t="shared" si="20"/>
+        <f>B193+dt</f>
         <v>18.599999999999994</v>
       </c>
       <c r="C194" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D194" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E194" s="1"/>
@@ -10559,7 +10574,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J194">
-        <f>G193+J193</f>
+        <f t="shared" si="21"/>
         <v>-1116</v>
       </c>
       <c r="K194">
@@ -10573,15 +10588,15 @@
     </row>
     <row r="195" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B195">
-        <f t="shared" si="20"/>
+        <f>B194+dt</f>
         <v>18.699999999999996</v>
       </c>
       <c r="C195" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D195" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E195" s="1"/>
@@ -10602,7 +10617,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J195">
-        <f>G194+J194</f>
+        <f t="shared" si="21"/>
         <v>-1122</v>
       </c>
       <c r="K195">
@@ -10616,15 +10631,15 @@
     </row>
     <row r="196" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B196">
-        <f t="shared" si="20"/>
+        <f>B195+dt</f>
         <v>18.799999999999997</v>
       </c>
       <c r="C196" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D196" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E196" s="1"/>
@@ -10645,7 +10660,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J196">
-        <f>G195+J195</f>
+        <f t="shared" si="21"/>
         <v>-1128</v>
       </c>
       <c r="K196">
@@ -10659,15 +10674,15 @@
     </row>
     <row r="197" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B197">
-        <f t="shared" si="20"/>
+        <f>B196+dt</f>
         <v>18.899999999999999</v>
       </c>
       <c r="C197" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D197" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E197" s="1"/>
@@ -10688,7 +10703,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J197">
-        <f>G196+J196</f>
+        <f t="shared" si="21"/>
         <v>-1134</v>
       </c>
       <c r="K197">
@@ -10702,15 +10717,15 @@
     </row>
     <row r="198" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B198">
-        <f t="shared" si="20"/>
+        <f>B197+dt</f>
         <v>19</v>
       </c>
       <c r="C198" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D198" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E198" s="1"/>
@@ -10731,7 +10746,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J198">
-        <f>G197+J197</f>
+        <f t="shared" si="21"/>
         <v>-1140</v>
       </c>
       <c r="K198">
@@ -10745,15 +10760,15 @@
     </row>
     <row r="199" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B199">
-        <f t="shared" si="20"/>
+        <f>B198+dt</f>
         <v>19.100000000000001</v>
       </c>
       <c r="C199" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D199" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E199" s="1"/>
@@ -10774,7 +10789,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J199">
-        <f>G198+J198</f>
+        <f t="shared" si="21"/>
         <v>-1146</v>
       </c>
       <c r="K199">
@@ -10788,15 +10803,15 @@
     </row>
     <row r="200" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B200">
-        <f t="shared" si="20"/>
+        <f>B199+dt</f>
         <v>19.200000000000003</v>
       </c>
       <c r="C200" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D200" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E200" s="1"/>
@@ -10817,7 +10832,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J200">
-        <f>G199+J199</f>
+        <f t="shared" si="21"/>
         <v>-1152</v>
       </c>
       <c r="K200">
@@ -10831,15 +10846,15 @@
     </row>
     <row r="201" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B201">
-        <f t="shared" si="20"/>
+        <f>B200+dt</f>
         <v>19.300000000000004</v>
       </c>
       <c r="C201" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
       <c r="D201" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E201" s="1"/>
@@ -10860,7 +10875,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J201">
-        <f>G200+J200</f>
+        <f t="shared" si="21"/>
         <v>-1158</v>
       </c>
       <c r="K201">
@@ -10874,15 +10889,15 @@
     </row>
     <row r="202" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B202">
-        <f t="shared" ref="B202:B210" si="28">B201+0.1</f>
+        <f>B201+dt</f>
         <v>19.400000000000006</v>
       </c>
       <c r="C202" s="1">
-        <f t="shared" ref="C202:D210" si="29">C201</f>
+        <f t="shared" ref="C202:D210" si="28">C201</f>
         <v>300</v>
       </c>
       <c r="D202" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E202" s="1"/>
@@ -10903,7 +10918,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J202">
-        <f>G201+J201</f>
+        <f t="shared" ref="J202:J211" si="29">G201+J201</f>
         <v>-1164</v>
       </c>
       <c r="K202">
@@ -10917,15 +10932,15 @@
     </row>
     <row r="203" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B203">
+        <f>B202+dt</f>
+        <v>19.500000000000007</v>
+      </c>
+      <c r="C203" s="1">
         <f t="shared" si="28"/>
-        <v>19.500000000000007</v>
-      </c>
-      <c r="C203" s="1">
-        <f t="shared" si="29"/>
         <v>300</v>
       </c>
       <c r="D203" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E203" s="1"/>
@@ -10946,7 +10961,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J203">
-        <f>G202+J202</f>
+        <f t="shared" si="29"/>
         <v>-1170</v>
       </c>
       <c r="K203">
@@ -10960,15 +10975,15 @@
     </row>
     <row r="204" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B204">
+        <f>B203+dt</f>
+        <v>19.600000000000009</v>
+      </c>
+      <c r="C204" s="1">
         <f t="shared" si="28"/>
-        <v>19.600000000000009</v>
-      </c>
-      <c r="C204" s="1">
-        <f t="shared" si="29"/>
         <v>300</v>
       </c>
       <c r="D204" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E204" s="1"/>
@@ -10989,7 +11004,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J204">
-        <f>G203+J203</f>
+        <f t="shared" si="29"/>
         <v>-1176</v>
       </c>
       <c r="K204">
@@ -11003,15 +11018,15 @@
     </row>
     <row r="205" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B205">
+        <f>B204+dt</f>
+        <v>19.70000000000001</v>
+      </c>
+      <c r="C205" s="1">
         <f t="shared" si="28"/>
-        <v>19.70000000000001</v>
-      </c>
-      <c r="C205" s="1">
-        <f t="shared" si="29"/>
         <v>300</v>
       </c>
       <c r="D205" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E205" s="1"/>
@@ -11032,7 +11047,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J205">
-        <f>G204+J204</f>
+        <f t="shared" si="29"/>
         <v>-1182</v>
       </c>
       <c r="K205">
@@ -11046,15 +11061,15 @@
     </row>
     <row r="206" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B206">
+        <f>B205+dt</f>
+        <v>19.800000000000011</v>
+      </c>
+      <c r="C206" s="1">
         <f t="shared" si="28"/>
-        <v>19.800000000000011</v>
-      </c>
-      <c r="C206" s="1">
-        <f t="shared" si="29"/>
         <v>300</v>
       </c>
       <c r="D206" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E206" s="1"/>
@@ -11075,7 +11090,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J206">
-        <f>G205+J205</f>
+        <f t="shared" si="29"/>
         <v>-1188</v>
       </c>
       <c r="K206">
@@ -11089,15 +11104,15 @@
     </row>
     <row r="207" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B207">
+        <f>B206+dt</f>
+        <v>19.900000000000013</v>
+      </c>
+      <c r="C207" s="1">
         <f t="shared" si="28"/>
-        <v>19.900000000000013</v>
-      </c>
-      <c r="C207" s="1">
-        <f t="shared" si="29"/>
         <v>300</v>
       </c>
       <c r="D207" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E207" s="1"/>
@@ -11118,7 +11133,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J207">
-        <f>G206+J206</f>
+        <f t="shared" si="29"/>
         <v>-1194</v>
       </c>
       <c r="K207">
@@ -11132,15 +11147,15 @@
     </row>
     <row r="208" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B208">
+        <f>B207+dt</f>
+        <v>20.000000000000014</v>
+      </c>
+      <c r="C208" s="1">
         <f t="shared" si="28"/>
-        <v>20.000000000000014</v>
-      </c>
-      <c r="C208" s="1">
-        <f t="shared" si="29"/>
         <v>300</v>
       </c>
       <c r="D208" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E208" s="1"/>
@@ -11161,7 +11176,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J208">
-        <f>G207+J207</f>
+        <f t="shared" si="29"/>
         <v>-1200</v>
       </c>
       <c r="K208">
@@ -11175,15 +11190,15 @@
     </row>
     <row r="209" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B209">
+        <f>B208+dt</f>
+        <v>20.100000000000016</v>
+      </c>
+      <c r="C209" s="1">
         <f t="shared" si="28"/>
-        <v>20.100000000000016</v>
-      </c>
-      <c r="C209" s="1">
-        <f t="shared" si="29"/>
         <v>300</v>
       </c>
       <c r="D209" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E209" s="1"/>
@@ -11204,7 +11219,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J209">
-        <f>G208+J208</f>
+        <f t="shared" si="29"/>
         <v>-1206</v>
       </c>
       <c r="K209">
@@ -11218,15 +11233,15 @@
     </row>
     <row r="210" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B210">
+        <f>B209+dt</f>
+        <v>20.200000000000017</v>
+      </c>
+      <c r="C210" s="1">
         <f t="shared" si="28"/>
-        <v>20.200000000000017</v>
-      </c>
-      <c r="C210" s="1">
-        <f t="shared" si="29"/>
         <v>300</v>
       </c>
       <c r="D210" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E210" s="1"/>
@@ -11247,7 +11262,7 @@
         <v>-6.9853874549731465</v>
       </c>
       <c r="J210">
-        <f>G209+J209</f>
+        <f t="shared" si="29"/>
         <v>-1212</v>
       </c>
       <c r="K210">
@@ -11261,7 +11276,7 @@
     </row>
     <row r="211" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J211">
-        <f>G210+J210</f>
+        <f t="shared" si="29"/>
         <v>-1218</v>
       </c>
       <c r="K211">
